--- a/Documentation/TEAM_GRANT_BACKLOGS.xlsx
+++ b/Documentation/TEAM_GRANT_BACKLOGS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -166,6 +166,39 @@
   </si>
   <si>
     <t>Complexity</t>
+  </si>
+  <si>
+    <t>Set up Skeleton Application</t>
+  </si>
+  <si>
+    <t>Set up song fetching</t>
+  </si>
+  <si>
+    <t>Final Documentation</t>
+  </si>
+  <si>
+    <t>Code Documentation</t>
+  </si>
+  <si>
+    <t>Make our code portable with SQLite3</t>
+  </si>
+  <si>
+    <t>Extend the profile to be more useful and dynamic</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Flesh out learning methods</t>
+  </si>
+  <si>
+    <t>Rewrite playlist creation to implement selective recommendation</t>
+  </si>
+  <si>
+    <t>Finish formal testing</t>
+  </si>
+  <si>
+    <t>Make our initial setup more portable (preferably a single install script)</t>
   </si>
 </sst>
 </file>
@@ -181,12 +214,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -201,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -211,6 +262,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,15 +577,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,29 +588,29 @@
         <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>36</v>
+      <c r="A5" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
+      <c r="A6" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -566,32 +618,27 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
+    <row r="8" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -602,62 +649,52 @@
         <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -665,10 +702,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -676,32 +713,27 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
+    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
@@ -712,7 +744,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -720,32 +752,27 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
+    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
@@ -753,10 +780,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
@@ -764,24 +791,24 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,32 +816,27 @@
         <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,40 +844,35 @@
         <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>29</v>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
@@ -863,10 +880,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -874,10 +891,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
@@ -885,12 +902,124 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C48" t="s">
         <v>41</v>
       </c>
     </row>
@@ -904,7 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/TEAM_GRANT_BACKLOGS.xlsx
+++ b/Documentation/TEAM_GRANT_BACKLOGS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Make our initial setup more portable (preferably a single install script)</t>
+  </si>
+  <si>
+    <t>Find a better way to do Python documentation</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,11 +843,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>36</v>
+      <c r="A30" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
@@ -855,35 +858,35 @@
         <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10" t="s">
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>24</v>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -891,10 +894,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
@@ -902,55 +905,55 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10" t="s">
+    <row r="40" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>29</v>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
@@ -961,27 +964,27 @@
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -989,27 +992,27 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1017,9 +1020,20 @@
         <v>36</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>41</v>
       </c>
     </row>
